--- a/regions/12/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/12/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -67,11 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -312,6 +312,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -622,36 +623,39 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.140625" customWidth="1"/>
     <col min="2" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -674,7 +678,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -721,13 +725,17 @@
       <c r="P3" s="16">
         <v>2020</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
+      <c r="Q3" s="16">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="16">
+        <v>2022</v>
+      </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
@@ -776,13 +784,17 @@
       <c r="P4" s="30">
         <v>39.9</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="Q4" s="30">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="R4" s="30">
+        <v>124.5</v>
+      </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
@@ -831,13 +843,17 @@
       <c r="P5" s="30">
         <v>39.9</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
+      <c r="Q5" s="30">
+        <v>36.1</v>
+      </c>
+      <c r="R5" s="30">
+        <v>123.2</v>
+      </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75">
+    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>8</v>
       </c>
@@ -886,13 +902,17 @@
       <c r="P6" s="30">
         <v>714</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="Q6" s="30">
+        <v>868</v>
+      </c>
+      <c r="R6" s="30">
+        <v>918</v>
+      </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75">
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
@@ -941,13 +961,17 @@
       <c r="P7" s="30">
         <v>403</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="Q7" s="30">
+        <v>413</v>
+      </c>
+      <c r="R7" s="30">
+        <v>574</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" s="22" customFormat="1">
+    <row r="8" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>15</v>
       </c>
@@ -996,13 +1020,17 @@
       <c r="P8" s="30">
         <v>726</v>
       </c>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="Q8" s="38">
+        <v>953.3</v>
+      </c>
+      <c r="R8" s="38">
+        <v>950.3</v>
+      </c>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
@@ -1051,13 +1079,17 @@
       <c r="P9" s="30">
         <v>16.3</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="Q9" s="30">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R9" s="30">
+        <v>80.900000000000006</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>3</v>
       </c>
@@ -1106,13 +1138,17 @@
       <c r="P10" s="30">
         <v>3.5</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
+      <c r="Q10" s="30">
+        <v>4.8</v>
+      </c>
+      <c r="R10" s="30">
+        <v>6.6</v>
+      </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75">
+    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
@@ -1161,13 +1197,17 @@
       <c r="P11" s="30">
         <v>23.6</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
+      <c r="Q11" s="43">
+        <v>19</v>
+      </c>
+      <c r="R11" s="43">
+        <v>42.4</v>
+      </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75">
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1216,13 +1256,17 @@
       <c r="P12" s="30">
         <v>0.6</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="Q12" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="R12" s="30">
+        <v>6.9</v>
+      </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>5</v>
       </c>
@@ -1271,13 +1315,17 @@
       <c r="P13" s="30">
         <v>16.100000000000001</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="Q13" s="30">
+        <v>21.4</v>
+      </c>
+      <c r="R13" s="30">
+        <v>83.1</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" s="22" customFormat="1">
+    <row r="14" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
@@ -1326,13 +1374,17 @@
       <c r="P14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
+      <c r="Q14" s="38">
+        <v>4.2</v>
+      </c>
+      <c r="R14" s="38">
+        <v>2.4</v>
+      </c>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1355,7 +1407,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" ht="15.75">
+    <row r="16" spans="1:21" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1432,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" s="5" customFormat="1" ht="15.75">
+    <row r="17" spans="1:21" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>13</v>
       </c>
@@ -1405,7 +1457,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
@@ -1428,7 +1480,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -1451,59 +1503,59 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
   </sheetData>

--- a/regions/12/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
+++ b/regions/12/transporti da kavshirgabmuloba/transporti da dasawyobeba.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A31050-9C11-4752-B90E-1ED94CE7BBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="6345" windowWidth="22260" windowHeight="8010"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,11 +68,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,9 +213,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -223,43 +224,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -302,9 +289,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -409,6 +393,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,943 +637,864 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:P1"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="75.140625" customWidth="1"/>
     <col min="2" max="11" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:21" s="6" customFormat="1">
+      <c r="A1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="18">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="7"/>
+      <c r="B3" s="14">
         <v>2006</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="14">
         <v>2007</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="14">
         <v>2008</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="14">
         <v>2009</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="14">
         <v>2010</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="13">
         <v>2011</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="13">
         <v>2012</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="13">
         <v>2013</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="15">
         <v>2014</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="15">
         <v>2015</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="13">
         <v>2016</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="13">
         <v>2017</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="13">
         <v>2018</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="13">
         <v>2019</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="13">
         <v>2020</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="13">
         <v>2021</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="13">
         <v>2022</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="S3" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="21">
         <v>4.0612700000000004</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="21">
         <v>2.2963100000000001</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="21">
         <v>2.7661099999999998</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <v>1.0145</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="21">
         <v>1.93276</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="21">
         <v>9.5013199999999998</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="22">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="22">
         <v>7.3</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="23">
         <v>17.290400000000002</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="23">
         <v>11.790799999999999</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="23">
         <v>13.6</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="21">
         <v>18.598040000000001</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="21">
         <v>29.157630000000001</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="24">
         <v>30.2</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="24">
         <v>39.9</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="24">
         <v>35.799999999999997</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="24">
         <v>124.5</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="S4" s="24">
+        <v>130.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="21">
         <v>5.2610099999999997</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="21">
         <v>2.2963100000000001</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="21">
         <v>2.0670700000000002</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="21">
         <v>1.0145</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="21">
         <v>1.9327700000000001</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="21">
         <v>9.1050599999999999</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="25">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="25">
         <v>7.3</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="26">
         <v>17.3</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="26">
         <v>13.2</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="26">
         <v>13.5</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="21">
         <v>18.07132</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="21">
         <v>29.619420000000002</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="24">
         <v>30.2</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="24">
         <v>39.9</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="24">
         <v>36.1</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="24">
         <v>123.2</v>
       </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="S5" s="36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.75">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="27">
         <v>400</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="27">
         <v>471.5</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="27">
         <v>281</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="27">
         <v>192.91482999999999</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="27">
         <v>291.66667000000001</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="27">
         <v>612.55079999999998</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="22">
         <v>351</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="22">
         <v>282</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="26">
         <v>366</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="26">
         <v>716</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="26">
         <v>312</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="27">
         <v>567.33501000000001</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="27">
         <v>752.46006999999997</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="24">
         <v>885</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="24">
         <v>714</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="24">
         <v>868</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="24">
         <v>918</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="S6" s="24">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75">
+      <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="27">
         <v>343</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="27">
         <v>469.5</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="27">
         <v>274</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="27">
         <v>167.5</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="27">
         <v>276.33334000000002</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="27">
         <v>572.60127</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="22">
         <v>242</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="22">
         <v>201</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="26">
         <v>331</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="26">
         <v>646</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="26">
         <v>228</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="27">
         <v>399.93596000000002</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="27">
         <v>412.83850999999999</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="24">
         <v>441</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="24">
         <v>403</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="24">
         <v>413</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="24">
         <v>574</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="S7" s="24">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="16" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="28">
         <v>212.961491</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="28">
         <v>168.65543099999999</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="28">
         <v>171.301399</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="28">
         <v>143.94004899999999</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="28">
         <v>186.912038</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="28">
         <v>215.751328</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="29">
         <v>215.6</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="29">
         <v>486.2</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="30">
         <v>372.6</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="30">
         <v>273.5</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="31">
         <v>749.5</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="28">
         <v>749.60593700000004</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="28">
         <v>752.78062</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="32">
         <v>534.5</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="24">
         <v>726</v>
       </c>
-      <c r="Q8" s="38">
+      <c r="Q8" s="32">
         <v>953.3</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="32">
         <v>950.3</v>
       </c>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="S8" s="32">
+        <v>1179.0999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75">
+      <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="21">
         <v>3.3277100000000002</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="21">
         <v>0.94689000000000001</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="21">
         <v>0.93854000000000004</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="21">
         <v>0.38983000000000001</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="21">
         <v>0.63902000000000003</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="21">
         <v>3.9202400000000002</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="22">
         <v>1.8</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="22">
         <v>2.7</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="23">
         <v>11.380100000000001</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="23">
         <v>9.2781000000000002</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="26">
         <v>6.9</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="21">
         <v>8.8408599999999993</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="21">
         <v>19.910889999999998</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="24">
         <v>15.4</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="24">
         <v>16.3</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="24">
         <v>17.100000000000001</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="24">
         <v>80.900000000000006</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="S9" s="24">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="21">
         <v>1.05189</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="21">
         <v>1.24315</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="21">
         <v>0.56323999999999996</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <v>0.28932000000000002</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <v>0.61980000000000002</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="21">
         <v>1.48247</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="22">
         <v>0.6</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="22">
         <v>1.2</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="23">
         <v>1.4798</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="23">
         <v>2.1190000000000002</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="26">
         <v>2.1</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="21">
         <v>3.5975199999999998</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="21">
         <v>3.72933</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="24">
         <v>2.9</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="24">
         <v>3.5</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="24">
         <v>4.8</v>
       </c>
-      <c r="R10" s="30">
+      <c r="R10" s="24">
         <v>6.6</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="S10" s="24">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75">
+      <c r="A11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="21">
         <v>1.93329</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="21">
         <v>1.34944</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="21">
         <v>1.1285400000000001</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="21">
         <v>0.62468999999999997</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="21">
         <v>1.29375</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="21">
         <v>5.1848000000000001</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H11" s="22">
         <v>2.8</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="22">
         <v>4.7</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="23">
         <v>5.9121999999999995</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="23">
         <v>3.8763000000000001</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="23">
         <v>6.6</v>
       </c>
-      <c r="M11" s="27">
+      <c r="M11" s="21">
         <v>9.2305100000000007</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="21">
         <v>9.7085799999999995</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="24">
         <v>14.8</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="24">
         <v>23.6</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="36">
         <v>19</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="36">
         <v>42.4</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="S11" s="36">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.75">
+      <c r="A12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="21">
         <v>0.14083000000000001</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="21">
         <v>0.22498000000000001</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="21">
         <v>0.26912000000000003</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>0</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="21">
         <v>0.21726999999999999</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="21">
         <v>0.43603999999999998</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="22">
         <v>0.3</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="22">
         <v>0.9</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="23">
         <v>0.61429999999999996</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="23">
         <v>0.48969999999999997</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="26">
         <v>0.3</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="21">
         <v>0.59792999999999996</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="21">
         <v>0.81222000000000005</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="24">
         <v>0.1</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="24">
         <v>0.6</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="24">
         <v>0.7</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="24">
         <v>6.9</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="S12" s="24">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75">
+      <c r="A13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="21">
         <v>0.90842999999999996</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="21">
         <v>1.44903</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="21">
         <v>0.26064999999999999</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="21">
         <v>0.76473999999999998</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="21">
         <v>3.8559299999999999</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="22">
         <v>1.4</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="22">
         <v>3.2</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="25">
         <v>11.084</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="25">
         <v>9.1646999999999998</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="22">
         <v>6.1</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="21">
         <v>7.2433899999999998</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="21">
         <v>20.116499999999998</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="24">
         <v>14.6</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="24">
         <v>16.100000000000001</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="24">
         <v>21.4</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="24">
         <v>83.1</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="S13" s="24">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="16" customFormat="1">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="28">
         <v>0</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="28">
         <v>0.73441999999999996</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="28">
         <v>0</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="28">
         <v>0</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="28">
         <v>0.45644000000000001</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="34">
         <v>0</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="31">
         <v>0.2</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="28">
         <v>0.52524000000000004</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="28">
         <v>0.26430999999999999</v>
       </c>
-      <c r="O14" s="38">
+      <c r="O14" s="32">
         <v>0.2</v>
       </c>
-      <c r="P14" s="42" t="s">
+      <c r="P14" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="38">
+      <c r="Q14" s="32">
         <v>4.2</v>
       </c>
-      <c r="R14" s="38">
+      <c r="R14" s="32">
         <v>2.4</v>
       </c>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="S14" s="32">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75">
+      <c r="A15" s="19"/>
+    </row>
+    <row r="16" spans="1:21" s="5" customFormat="1" ht="15.75">
+      <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-    </row>
-    <row r="17" spans="1:21" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:21" s="5" customFormat="1" ht="15.75">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3">
       <c r="C33" s="3"/>
     </row>
   </sheetData>
